--- a/results/yq_test/DJ_cz/Rb2Re4/cz_2q_dj_indep_qiskit_28.qasm_rb2_archsize6_mini_dis.xlsx
+++ b/results/yq_test/DJ_cz/Rb2Re4/cz_2q_dj_indep_qiskit_28.qasm_rb2_archsize6_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02228903770446777</v>
+        <v>0.0006589889526367188</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.009716987609863281</v>
+        <v>0.0006291866302490234</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0003509521484375</v>
+        <v>0.01279211044311523</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 2), (1, 1), (1, 2), (1, 3), (2, 0), (2, 1), (2, 3), (2, 4), (3, 1), (3, 2), (3, 3), (4, 2), (0, 0), (0, 1), (0, 3), (0, 4), (1, 0), (3, 0), (1, 4), (1, 5), (4, 0), (3, 4), (3, 5), (4, 1), (0, 5), (2, 5), (4, 3), (2, 2)]</t>
+          <t>[[0, 2], [1, 1], [1, 2], [1, 3], [2, 0], [2, 1], [2, 3], [2, 4], [3, 1], [3, 2], [3, 3], [4, 2], [0, 0], [0, 1], [0, 3], [0, 4], [1, 0], [3, 0], [1, 4], [1, 5], [4, 0], [3, 4], [3, 5], [4, 1], [0, 5], [2, 5], [4, 3], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>[(0, 0), (0, 1), (0, 3), (0, 4), (1, 0), (3, 0), (1, 4), (1, 5), (4, 0), (3, 4), (3, 5), (4, 1), (0, 2), (1, 1), (1, 2), (1, 3), (2, 0), (2, 1), (2, 3), (2, 4), (3, 1), (3, 2), (3, 3), (4, 2), (0, 5), (2, 5), (4, 3), (2, 2)]</t>
+          <t>[[0, 0], [0, 1], [0, 3], [0, 4], [1, 0], [3, 0], [1, 4], [1, 5], [4, 0], [3, 4], [3, 5], [4, 1], [0, 2], [1, 1], [1, 2], [1, 3], [2, 0], [2, 1], [2, 3], [2, 4], [3, 1], [3, 2], [3, 3], [4, 2], [0, 5], [2, 5], [4, 3], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>[(1, 0), (1, 1), (0, 4), (0, 5), (1, 2), (3, 0), (1, 4), (1, 5), (4, 0), (3, 4), (3, 5), (4, 1), (1, 3), (2, 0), (2, 1), (2, 2), (3, 1), (2, 3), (2, 4), (2, 5), (3, 2), (3, 3), (4, 2), (4, 3), (0, 0), (0, 2), (0, 3), (0, 1)]</t>
+          <t>[[1, 0], [1, 1], [0, 4], [0, 5], [1, 2], [3, 0], [1, 4], [1, 5], [4, 0], [3, 4], [3, 5], [4, 1], [1, 3], [2, 0], [2, 1], [2, 2], [3, 1], [2, 3], [2, 4], [2, 5], [3, 2], [3, 3], [4, 2], [4, 3], [0, 0], [0, 2], [0, 3], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -992,110 +992,120 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>17</v>
+        <v>0.9989720255297858</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.04426383972167969</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.03098678588867188</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="L62" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
+      <c r="M62" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr">
+      <c r="N62" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
